--- a/upload/sales/tes.xlsx
+++ b/upload/sales/tes.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C38371-B342-4338-AD37-3487AF282389}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD1B3DD-D767-467C-B1F3-29B18F3AA0F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Datel">Sheet1!$A$2:$A$7</definedName>
+    <definedName name="Datel">Sheet1!$A$2:$A$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Datel</t>
   </si>
@@ -52,67 +52,16 @@
     <t>Magelang</t>
   </si>
   <si>
-    <t>fiki</t>
-  </si>
-  <si>
-    <t>pikoel</t>
-  </si>
-  <si>
-    <t>Muntilan</t>
-  </si>
-  <si>
-    <t>Purworejo</t>
-  </si>
-  <si>
-    <t>Kebumen</t>
-  </si>
-  <si>
-    <t>Temanggung</t>
-  </si>
-  <si>
-    <t>Wonosobo</t>
-  </si>
-  <si>
-    <t>tes</t>
-  </si>
-  <si>
-    <t>tus</t>
-  </si>
-  <si>
-    <t>anu</t>
-  </si>
-  <si>
-    <t>mama</t>
-  </si>
-  <si>
-    <t>zero</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>aku</t>
-  </si>
-  <si>
-    <t>gaada</t>
-  </si>
-  <si>
-    <t>kamu</t>
-  </si>
-  <si>
-    <t>kita</t>
-  </si>
-  <si>
-    <t>fend</t>
-  </si>
-  <si>
-    <t>nui</t>
-  </si>
-  <si>
-    <t>huhu</t>
-  </si>
-  <si>
-    <t>idont</t>
+    <t>tutu</t>
+  </si>
+  <si>
+    <t>utut</t>
+  </si>
+  <si>
+    <t>tu</t>
+  </si>
+  <si>
+    <t>ut</t>
   </si>
 </sst>
 </file>
@@ -439,15 +388,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="7" max="8" width="10.85546875" customWidth="1"/>
   </cols>
@@ -483,160 +433,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>24123</v>
+        <v>876868</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2">
-        <v>213109</v>
-      </c>
-      <c r="H2">
-        <v>210318</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>12312</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3">
-        <v>921030</v>
-      </c>
-      <c r="H3">
-        <v>73281</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="B4">
-        <v>98172391</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4">
-        <v>19237</v>
-      </c>
-      <c r="H4">
-        <v>12839</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>72163</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5">
-        <v>2139</v>
-      </c>
-      <c r="H5">
-        <v>2329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>98734</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6">
-        <v>219</v>
-      </c>
-      <c r="H6">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>8299</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7">
-        <v>28193</v>
-      </c>
-      <c r="H7">
-        <v>3219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>91238</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8">
-        <v>28391</v>
-      </c>
-      <c r="H8">
-        <v>1329</v>
       </c>
     </row>
   </sheetData>
